--- a/mistakes_search/others/w2v_error_analysis.xlsx
+++ b/mistakes_search/others/w2v_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="25600" windowHeight="17440" tabRatio="500"/>
+    <workbookView xWindow="14740" yWindow="4500" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>слово-ошибка</t>
   </si>
@@ -267,9 +267,6 @@
     <t>0.5743621587753296</t>
   </si>
   <si>
-    <t>0.6700067520141602</t>
-  </si>
-  <si>
     <t>0.6413159966468811</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>0.011235955056179775</t>
   </si>
   <si>
-    <t>0.7445834875106812</t>
-  </si>
-  <si>
     <t>0.714025616645813</t>
   </si>
   <si>
@@ -397,6 +391,15 @@
   </si>
   <si>
     <t>1.4652143462067067e-06</t>
+  </si>
+  <si>
+    <t>если кос близость &gt;= 0.69, то пропускаем с любой положит вероятностью…</t>
+  </si>
+  <si>
+    <t>если кос близость &lt;= 0.69, то пропускаем только с вероятностью &gt;=0.0008</t>
+  </si>
+  <si>
+    <t>всего 12 ошибок, отфильтрует 8</t>
   </si>
 </sst>
 </file>
@@ -449,12 +452,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -466,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -482,13 +503,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="25">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
@@ -496,6 +530,11 @@
     <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
@@ -504,6 +543,11 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -832,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -877,7 +921,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
@@ -900,7 +944,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
@@ -923,7 +967,7 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F4" t="s">
@@ -946,7 +990,7 @@
       <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F5" t="s">
@@ -969,7 +1013,7 @@
       <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F6" t="s">
@@ -992,8 +1036,8 @@
       <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
+      <c r="E7" s="4">
+        <v>0.84341329336166304</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1015,8 +1059,8 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
-        <v>83</v>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -1038,8 +1082,8 @@
       <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
-        <v>84</v>
+      <c r="E9" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1061,8 +1105,8 @@
       <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
-        <v>85</v>
+      <c r="E10" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1084,8 +1128,8 @@
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
+      <c r="E11" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1107,8 +1151,8 @@
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
+      <c r="E12" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -1130,7 +1174,7 @@
       <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F13" t="s">
@@ -1153,7 +1197,7 @@
       <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
@@ -1176,7 +1220,7 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.71402561664581299</v>
       </c>
       <c r="F15" t="s">
@@ -1199,7 +1243,7 @@
       <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
@@ -1222,7 +1266,7 @@
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F17" t="s">
@@ -1234,117 +1278,117 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.74458348751068104</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1360,76 +1404,76 @@
       <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E23" t="s">
-        <v>113</v>
+      <c r="E23" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.82912337779998702</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>2.0498321258172799E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.61483293771743697</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.65504115819930997</v>
       </c>
       <c r="F26" t="s">
@@ -1437,6 +1481,21 @@
       </c>
       <c r="G26" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="E29" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
